--- a/consort/MSextramanual.xlsx
+++ b/consort/MSextramanual.xlsx
@@ -8,14 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hannahmoyer/Projects/Neurobypass/consort/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC26A985-8B5D-CD46-81BC-509A4FC770C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6B9EAA3-C24A-4C46-A011-20C5B93C7937}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="1000" windowWidth="27640" windowHeight="16020" xr2:uid="{935A57EB-65FF-AA41-A70B-D38152F89481}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$P$61</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="128">
   <si>
     <t>nct_id</t>
   </si>
@@ -255,13 +258,178 @@
   </si>
   <si>
     <t>NCT01524250</t>
+  </si>
+  <si>
+    <t xml:space="preserve">symptom </t>
+  </si>
+  <si>
+    <t xml:space="preserve">primary is efficacy </t>
+  </si>
+  <si>
+    <t>fatigue</t>
+  </si>
+  <si>
+    <t> 10.1056/NEJMoa1917246</t>
+  </si>
+  <si>
+    <t>10.1016/S0140-6736(12)61768-1</t>
+  </si>
+  <si>
+    <t>10.1016/S0140-6736(12)61769-3</t>
+  </si>
+  <si>
+    <t>10.1177/1352458513507821</t>
+  </si>
+  <si>
+    <t>10.1016/S1474-4422(13)70308-9</t>
+  </si>
+  <si>
+    <t>10.1001/jamaneurol.2021.0405</t>
+  </si>
+  <si>
+    <t>10.1007/s40263-018-0586-5</t>
+  </si>
+  <si>
+    <t>walking?</t>
+  </si>
+  <si>
+    <t>10.1016/S1474-4422(21)00364-1</t>
+  </si>
+  <si>
+    <t>10.1016/S0140-6736(18)30475-6</t>
+  </si>
+  <si>
+    <t>Spasticity</t>
+  </si>
+  <si>
+    <t>walking</t>
+  </si>
+  <si>
+    <t xml:space="preserve">conditioning stem cells </t>
+  </si>
+  <si>
+    <t>10.1177/13524585211032803</t>
+  </si>
+  <si>
+    <t>10.1056/NEJMoa0907839</t>
+  </si>
+  <si>
+    <t>10.1016/S1474-4422(19)30238-8</t>
+  </si>
+  <si>
+    <t>flusymptoms</t>
+  </si>
+  <si>
+    <t>10.1056/NEJMoa2201904</t>
+  </si>
+  <si>
+    <t>10.1056/NEJMoa1601277</t>
+  </si>
+  <si>
+    <t>cog disorders</t>
+  </si>
+  <si>
+    <t>10.1056/NEJMoa1114287</t>
+  </si>
+  <si>
+    <t>10.1056/NEJMoa1206328</t>
+  </si>
+  <si>
+    <t> Positive Response to TT Vaccine</t>
+  </si>
+  <si>
+    <t>generic drug</t>
+  </si>
+  <si>
+    <t>10.1056/NEJMoa1606468</t>
+  </si>
+  <si>
+    <t>10.1056/NEJMoa1501481</t>
+  </si>
+  <si>
+    <t>spacitity</t>
+  </si>
+  <si>
+    <t>10.1212/NXI.0000000000001148</t>
+  </si>
+  <si>
+    <t>RIS</t>
+  </si>
+  <si>
+    <t>cognition</t>
+  </si>
+  <si>
+    <t>oxidative stress markers-could be an efficacy endpoint?</t>
+  </si>
+  <si>
+    <t>optic neurosis</t>
+  </si>
+  <si>
+    <t>cognitive fatigue</t>
+  </si>
+  <si>
+    <t>Terif</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> P include</t>
+  </si>
+  <si>
+    <t>Ponesimod</t>
+  </si>
+  <si>
+    <t>O</t>
+  </si>
+  <si>
+    <t>pediatric?-check old codebook version</t>
+  </si>
+  <si>
+    <t>NCT00337779: </t>
+  </si>
+  <si>
+    <t>first with dmf too</t>
+  </si>
+  <si>
+    <t>NCT00605215: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">first combo </t>
+  </si>
+  <si>
+    <t>new dose-maybe new formulation?</t>
+  </si>
+  <si>
+    <t>first in ppms</t>
+  </si>
+  <si>
+    <t>none</t>
+  </si>
+  <si>
+    <t>http://comtecmed.com/cony/2014/Uploads/Editor/Freedman.pdf</t>
+  </si>
+  <si>
+    <t>10.1007/s00415-014-7264-4</t>
+  </si>
+  <si>
+    <t>10.1212/NXI.0000000000000964</t>
+  </si>
+  <si>
+    <t>call it a phase 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">did not move on to p3 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">did not move on to phase 3 the phase 3 changed nct numbers to NCT02047734 so that will be included-only case this was possible because explicitly say in publication </t>
+  </si>
+  <si>
+    <t>the earlier one did not move on to p3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -276,13 +444,52 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <color rgb="FF777777"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -294,58 +501,26 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -655,18 +830,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B429CA24-7106-0B4B-AC86-AAFA2AC40041}">
-  <dimension ref="A1:M61"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:P61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView tabSelected="1" zoomScale="110" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="6" max="6" width="14" customWidth="1"/>
+    <col min="1" max="1" width="13.5" customWidth="1"/>
+    <col min="8" max="9" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -680,334 +857,1346 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" ht="18" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2" t="s">
+        <v>110</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I4" s="2"/>
+      <c r="L4" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="K7" t="s">
+        <v>112</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11" t="s">
+        <v>115</v>
+      </c>
+      <c r="L11" t="s">
+        <v>120</v>
+      </c>
+      <c r="O11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12" t="s">
+        <v>83</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13" t="s">
+        <v>14</v>
+      </c>
+      <c r="K13" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="I15" s="2"/>
+    </row>
+    <row r="16" spans="1:16" ht="23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="K18" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="I19" s="2"/>
+      <c r="L19" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="K21" t="s">
+        <v>127</v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+      <c r="L23" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+      <c r="L24" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
+      <c r="K25" t="s">
+        <v>117</v>
+      </c>
+      <c r="L25" t="s">
+        <v>120</v>
+      </c>
+      <c r="M25" t="s">
+        <v>121</v>
+      </c>
+      <c r="O25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>1</v>
+      </c>
+      <c r="L26" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>1</v>
+      </c>
+      <c r="L27" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>1</v>
+      </c>
+      <c r="L29" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>1</v>
+      </c>
+      <c r="L30" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>1</v>
+      </c>
+      <c r="L31" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B32">
+        <v>0</v>
+      </c>
+      <c r="K32" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B33">
+        <v>0</v>
+      </c>
+      <c r="K33" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B34">
+        <v>1</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="D34">
+        <v>1</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B35">
+        <v>1</v>
+      </c>
+      <c r="C35">
+        <v>1</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>1</v>
+      </c>
+      <c r="L35" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B36">
+        <v>1</v>
+      </c>
+      <c r="C36">
+        <v>1</v>
+      </c>
+      <c r="D36">
+        <v>1</v>
+      </c>
+      <c r="E36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36" t="s">
+        <v>26</v>
+      </c>
+      <c r="K36" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B37">
+        <v>1</v>
+      </c>
+      <c r="C37">
+        <v>1</v>
+      </c>
+      <c r="D37">
+        <v>1</v>
+      </c>
+      <c r="E37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>1</v>
+      </c>
+      <c r="L37" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B38">
+        <v>1</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
+      <c r="D38">
+        <v>1</v>
+      </c>
+      <c r="E38">
+        <v>1</v>
+      </c>
+      <c r="G38">
+        <v>1</v>
+      </c>
+      <c r="K38" t="s">
+        <v>119</v>
+      </c>
+      <c r="L38" t="s">
+        <v>120</v>
+      </c>
+      <c r="O38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B39">
+        <v>1</v>
+      </c>
+      <c r="C39">
+        <v>1</v>
+      </c>
+      <c r="D39">
+        <v>1</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B40">
+        <v>1</v>
+      </c>
+      <c r="C40">
+        <v>1</v>
+      </c>
+      <c r="D40">
+        <v>1</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B41">
+        <v>1</v>
+      </c>
+      <c r="C41">
+        <v>1</v>
+      </c>
+      <c r="D41">
+        <v>1</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B42">
+        <v>1</v>
+      </c>
+      <c r="C42">
+        <v>1</v>
+      </c>
+      <c r="D42">
+        <v>1</v>
+      </c>
+      <c r="E42">
+        <v>1</v>
+      </c>
+      <c r="G42">
+        <v>1</v>
+      </c>
+      <c r="L42" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B44">
+        <v>1</v>
+      </c>
+      <c r="C44">
+        <v>1</v>
+      </c>
+      <c r="D44">
+        <v>1</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B45">
+        <v>1</v>
+      </c>
+      <c r="C45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B47">
+        <v>1</v>
+      </c>
+      <c r="C47">
+        <v>1</v>
+      </c>
+      <c r="D47">
+        <v>0</v>
+      </c>
+      <c r="K47" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B48">
+        <v>1</v>
+      </c>
+      <c r="C48">
+        <v>1</v>
+      </c>
+      <c r="D48">
+        <v>1</v>
+      </c>
+      <c r="E48">
+        <v>1</v>
+      </c>
+      <c r="G48">
+        <v>1</v>
+      </c>
+      <c r="K48" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="L48" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="O48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B49">
+        <v>1</v>
+      </c>
+      <c r="C49">
+        <v>1</v>
+      </c>
+      <c r="D49">
+        <v>1</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B50">
+        <v>1</v>
+      </c>
+      <c r="C50">
+        <v>1</v>
+      </c>
+      <c r="D50">
+        <v>1</v>
+      </c>
+      <c r="E50">
+        <v>1</v>
+      </c>
+      <c r="G50">
+        <v>1</v>
+      </c>
+      <c r="I50">
+        <v>1</v>
+      </c>
+      <c r="J50">
+        <v>0</v>
+      </c>
+      <c r="K50" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="L50" s="7" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B51">
+        <v>1</v>
+      </c>
+      <c r="C51">
+        <v>1</v>
+      </c>
+      <c r="D51">
+        <v>1</v>
+      </c>
+      <c r="E51">
+        <v>1</v>
+      </c>
+      <c r="G51">
+        <v>1</v>
+      </c>
+      <c r="I51">
+        <v>1</v>
+      </c>
+      <c r="J51">
+        <v>0</v>
+      </c>
+      <c r="K51" s="8" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B52">
+        <v>1</v>
+      </c>
+      <c r="C52">
+        <v>1</v>
+      </c>
+      <c r="D52">
+        <v>1</v>
+      </c>
+      <c r="E52">
+        <v>1</v>
+      </c>
+      <c r="G52">
+        <v>1</v>
+      </c>
+      <c r="L52" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B53">
+        <v>1</v>
+      </c>
+      <c r="C53">
+        <v>1</v>
+      </c>
+      <c r="D53">
+        <v>1</v>
+      </c>
+      <c r="E53">
+        <v>0</v>
+      </c>
+      <c r="F53" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B54">
+        <v>1</v>
+      </c>
+      <c r="C54">
+        <v>1</v>
+      </c>
+      <c r="D54">
+        <v>1</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B55">
+        <v>1</v>
+      </c>
+      <c r="C55">
+        <v>1</v>
+      </c>
+      <c r="D55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B56">
+        <v>1</v>
+      </c>
+      <c r="C56">
+        <v>1</v>
+      </c>
+      <c r="D56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B57">
+        <v>1</v>
+      </c>
+      <c r="C57">
+        <v>1</v>
+      </c>
+      <c r="D57">
+        <v>1</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B59">
+        <v>1</v>
+      </c>
+      <c r="C59">
+        <v>1</v>
+      </c>
+      <c r="D59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B60">
+        <v>1</v>
+      </c>
+      <c r="C60">
+        <v>1</v>
+      </c>
+      <c r="D60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>72</v>
       </c>
+      <c r="B61">
+        <v>1</v>
+      </c>
+      <c r="C61">
+        <v>1</v>
+      </c>
+      <c r="D61">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:P61" xr:uid="{B429CA24-7106-0B4B-AC86-AAFA2AC40041}">
+    <filterColumn colId="6">
+      <filters>
+        <filter val="1"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="9">
+      <filters blank="1"/>
+    </filterColumn>
+    <filterColumn colId="11">
+      <filters>
+        <filter val=" 10.1056/NEJMoa1917246"/>
+        <filter val="10.1001/jamaneurol.2021.0405"/>
+        <filter val="10.1007/s00415-014-7264-4"/>
+        <filter val="10.1016/S0140-6736(12)61768-1"/>
+        <filter val="10.1016/S0140-6736(12)61769-3"/>
+        <filter val="10.1016/S0140-6736(18)30475-6"/>
+        <filter val="10.1016/S1474-4422(19)30238-8"/>
+        <filter val="10.1056/NEJMoa0907839"/>
+        <filter val="10.1056/NEJMoa1114287"/>
+        <filter val="10.1056/NEJMoa1206328"/>
+        <filter val="10.1056/NEJMoa1501481"/>
+        <filter val="10.1056/NEJMoa1601277"/>
+        <filter val="10.1056/NEJMoa1606468"/>
+        <filter val="10.1056/NEJMoa2201904"/>
+        <filter val="10.1212/NXI.0000000000001148"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <hyperlinks>
+    <hyperlink ref="L9" r:id="rId1" display="https://doi.org/10.1056/nejmoa1917246" xr:uid="{71C354F8-E17A-D847-8394-C05323C43878}"/>
+    <hyperlink ref="L52" r:id="rId2" display="https://doi.org/10.1056/nejmoa1917246" xr:uid="{6DACC23A-AC45-DC4E-ADDB-12AC7B07FE2C}"/>
+    <hyperlink ref="L7" r:id="rId3" display="https://doi.org/10.1016/s0140-6736(12)61768-1" xr:uid="{DFAD24C9-3F70-3745-8D3A-9E298FAE09FA}"/>
+    <hyperlink ref="L6" r:id="rId4" display="https://doi.org/10.1016/s0140-6736(12)61769-3" xr:uid="{1D4CD854-7DC4-5F4B-9F7D-FE87E26BB530}"/>
+    <hyperlink ref="L4" r:id="rId5" display="https://doi.org/10.1177/1352458513507821" xr:uid="{352A8C0E-022C-854B-A74C-05D9A3634E49}"/>
+    <hyperlink ref="L3" r:id="rId6" display="https://doi.org/10.1016/s1474-4422(13)70308-9" xr:uid="{F6930A67-DE4B-BE4F-B8AB-099540441AFE}"/>
+    <hyperlink ref="L2" r:id="rId7" display="https://doi.org/10.1001/jamaneurol.2021.0405" xr:uid="{2A3A1BBB-37CC-FD43-8B86-A2325C2A913F}"/>
+    <hyperlink ref="L12" r:id="rId8" display="https://doi.org/10.1007/s40263-018-0586-5" xr:uid="{30ED6108-4136-8049-9918-95DEC13AE23B}"/>
+    <hyperlink ref="L13" r:id="rId9" display="https://doi.org/10.1016/s1474-4422(21)00364-1" xr:uid="{49F61047-EE80-2240-8F67-EB8B06F1C3B3}"/>
+    <hyperlink ref="L14" r:id="rId10" display="https://doi.org/10.1016/s0140-6736(18)30475-6" xr:uid="{1C833A12-0D44-F84D-9A15-28439BD9C02F}"/>
+    <hyperlink ref="L19" r:id="rId11" display="https://doi.org/10.1177/13524585211032803" xr:uid="{48D4D787-5D4C-F646-A8D8-F4CF49AE6072}"/>
+    <hyperlink ref="L20" r:id="rId12" display="https://doi.org/10.1056/nejmoa0907839" xr:uid="{537A6EB3-9C18-8042-B560-70DD8AAB7B8A}"/>
+    <hyperlink ref="L21" r:id="rId13" display="https://doi.org/10.1016/s1474-4422(19)30238-8" xr:uid="{C7E9DA89-BD06-894B-8B95-5E1AEBA3E9AF}"/>
+    <hyperlink ref="L23" r:id="rId14" display="https://doi.org/10.1056/nejmoa2201904" xr:uid="{A752327B-3BD4-554E-A39C-984264A7C771}"/>
+    <hyperlink ref="L24" r:id="rId15" display="https://doi.org/10.1056/nejmoa2201904" xr:uid="{BB8BD747-38AC-3242-BE1F-08AB4E9D62D4}"/>
+    <hyperlink ref="L26" r:id="rId16" display="https://doi.org/10.1056/nejmoa1601277" xr:uid="{A2B10D69-E5A6-934D-83C2-F2A5BAAB65C7}"/>
+    <hyperlink ref="L29" r:id="rId17" display="https://doi.org/10.1056/nejmoa1114287" xr:uid="{2DFA76DD-7970-BD4C-B80E-D0118A0CED45}"/>
+    <hyperlink ref="L30" r:id="rId18" display="https://doi.org/10.1056/nejmoa1206328" xr:uid="{13917492-AF4C-714D-B53D-A1081FBD81E0}"/>
+    <hyperlink ref="L35" r:id="rId19" display="https://doi.org/10.1056/nejmoa1606468" xr:uid="{30D074FA-36DE-1240-A21E-04B381C7B464}"/>
+    <hyperlink ref="L37" r:id="rId20" display="https://doi.org/10.1056/nejmoa1501481" xr:uid="{AA52CD24-9923-9848-9B53-7F8A97E266D1}"/>
+    <hyperlink ref="L42" r:id="rId21" display="https://doi.org/10.1212/nxi.0000000000001148" xr:uid="{6B7C8336-0495-5D4F-9DC2-DD19216C70AE}"/>
+    <hyperlink ref="H4" r:id="rId22" display="https://clinicaltrials.gov/show/NCT00803049" xr:uid="{B7868934-70D5-E642-8C0C-F341432178A5}"/>
+    <hyperlink ref="H15" r:id="rId23" display="https://clinicaltrials.gov/show/NCT00337779" xr:uid="{0D14F252-258D-2D48-B7E4-E6990B175157}"/>
+    <hyperlink ref="H19" r:id="rId24" display="https://clinicaltrials.gov/show/NCT00605215" xr:uid="{EF93624B-60AB-E44A-B9D7-CFABD7142717}"/>
+    <hyperlink ref="L31" r:id="rId25" display="https://doi.org/10.1007/s00415-014-7264-4" xr:uid="{FFD6477F-3D72-0247-ABF4-2C05DBFDFF7A}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/consort/MSextramanual.xlsx
+++ b/consort/MSextramanual.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hannahmoyer/Projects/Neurobypass/consort/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6B9EAA3-C24A-4C46-A011-20C5B93C7937}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4726B2C9-B027-1845-92BB-623FCD8E9779}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="1000" windowWidth="27640" windowHeight="16020" xr2:uid="{935A57EB-65FF-AA41-A70B-D38152F89481}"/>
+    <workbookView xWindow="1040" yWindow="500" windowWidth="27640" windowHeight="16480" xr2:uid="{935A57EB-65FF-AA41-A70B-D38152F89481}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="127">
   <si>
     <t>nct_id</t>
   </si>
@@ -419,10 +419,7 @@
     <t xml:space="preserve">did not move on to p3 </t>
   </si>
   <si>
-    <t xml:space="preserve">did not move on to phase 3 the phase 3 changed nct numbers to NCT02047734 so that will be included-only case this was possible because explicitly say in publication </t>
-  </si>
-  <si>
-    <t>the earlier one did not move on to p3</t>
+    <t xml:space="preserve">did not move on to phase 3 </t>
   </si>
 </sst>
 </file>
@@ -830,11 +827,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B429CA24-7106-0B4B-AC86-AAFA2AC40041}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:P61"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A52"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="110" workbookViewId="0">
+      <selection activeCell="H49" sqref="H49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -922,7 +918,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" ht="23" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -951,7 +947,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="4" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -978,7 +974,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="5" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -1043,8 +1039,11 @@
       <c r="L7" s="2" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -1075,7 +1074,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="10" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>21</v>
       </c>
@@ -1095,7 +1094,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="11" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>22</v>
       </c>
@@ -1123,8 +1122,11 @@
       <c r="O11">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>23</v>
       </c>
@@ -1147,7 +1149,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="13" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>24</v>
       </c>
@@ -1199,7 +1201,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="15" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>26</v>
       </c>
@@ -1223,7 +1225,7 @@
       </c>
       <c r="I15" s="2"/>
     </row>
-    <row r="16" spans="1:16" ht="23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" ht="23" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>27</v>
       </c>
@@ -1243,7 +1245,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="17" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>28</v>
       </c>
@@ -1263,7 +1265,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="18" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>29</v>
       </c>
@@ -1274,7 +1276,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="19" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>30</v>
       </c>
@@ -1301,7 +1303,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>31</v>
       </c>
@@ -1323,8 +1325,11 @@
       <c r="L20" s="2" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>32</v>
       </c>
@@ -1341,18 +1346,20 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>1</v>
-      </c>
-      <c r="H21" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="H21" t="s">
+        <v>62</v>
+      </c>
       <c r="I21" s="2"/>
-      <c r="K21" t="s">
-        <v>127</v>
-      </c>
       <c r="L21" s="2" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="22" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>33</v>
       </c>
@@ -1372,7 +1379,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>34</v>
       </c>
@@ -1395,7 +1402,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>35</v>
       </c>
@@ -1418,7 +1425,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="25" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>36</v>
       </c>
@@ -1449,8 +1456,11 @@
       <c r="O25">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>37</v>
       </c>
@@ -1473,7 +1483,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>38</v>
       </c>
@@ -1496,7 +1506,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="28" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>39</v>
       </c>
@@ -1516,7 +1526,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>40</v>
       </c>
@@ -1539,7 +1549,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>41</v>
       </c>
@@ -1562,7 +1572,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>42</v>
       </c>
@@ -1585,7 +1595,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="32" spans="1:15" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:16" ht="19" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>43</v>
       </c>
@@ -1596,7 +1606,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="33" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>44</v>
       </c>
@@ -1607,7 +1617,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="34" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>45</v>
       </c>
@@ -1627,7 +1637,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>46</v>
       </c>
@@ -1650,7 +1660,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="36" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>47</v>
       </c>
@@ -1676,7 +1686,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>48</v>
       </c>
@@ -1699,7 +1709,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="38" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>49</v>
       </c>
@@ -1727,8 +1737,11 @@
       <c r="O38">
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>50</v>
       </c>
@@ -1748,7 +1761,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="40" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>51</v>
       </c>
@@ -1768,7 +1781,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="41" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>52</v>
       </c>
@@ -1788,7 +1801,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>53</v>
       </c>
@@ -1811,7 +1824,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="43" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>54</v>
       </c>
@@ -1819,7 +1832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>55</v>
       </c>
@@ -1827,16 +1840,10 @@
         <v>1</v>
       </c>
       <c r="C44">
-        <v>1</v>
-      </c>
-      <c r="D44">
-        <v>1</v>
-      </c>
-      <c r="E44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>56</v>
       </c>
@@ -1847,7 +1854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>57</v>
       </c>
@@ -1855,7 +1862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>58</v>
       </c>
@@ -1872,7 +1879,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="48" spans="1:15" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:16" ht="19" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>59</v>
       </c>
@@ -1886,10 +1893,7 @@
         <v>1</v>
       </c>
       <c r="E48">
-        <v>1</v>
-      </c>
-      <c r="G48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K48" s="6" t="s">
         <v>106</v>
@@ -1901,7 +1905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>60</v>
       </c>
@@ -1921,7 +1925,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="50" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>61</v>
       </c>
@@ -1935,10 +1939,7 @@
         <v>1</v>
       </c>
       <c r="E50">
-        <v>1</v>
-      </c>
-      <c r="G50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I50">
         <v>1</v>
@@ -1953,7 +1954,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="51" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>62</v>
       </c>
@@ -1967,10 +1968,7 @@
         <v>1</v>
       </c>
       <c r="E51">
-        <v>1</v>
-      </c>
-      <c r="G51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I51">
         <v>1</v>
@@ -1978,7 +1976,7 @@
       <c r="J51">
         <v>0</v>
       </c>
-      <c r="K51" s="8" t="s">
+      <c r="K51" s="6" t="s">
         <v>126</v>
       </c>
     </row>
@@ -2005,7 +2003,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="53" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>64</v>
       </c>
@@ -2025,7 +2023,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="54" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>65</v>
       </c>
@@ -2042,7 +2040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>66</v>
       </c>
@@ -2056,7 +2054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>67</v>
       </c>
@@ -2070,7 +2068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>68</v>
       </c>
@@ -2090,7 +2088,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="58" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>69</v>
       </c>
@@ -2098,7 +2096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>70</v>
       </c>
@@ -2112,7 +2110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>71</v>
       </c>
@@ -2126,7 +2124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>72</v>
       </c>
@@ -2141,35 +2139,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:P61" xr:uid="{B429CA24-7106-0B4B-AC86-AAFA2AC40041}">
-    <filterColumn colId="6">
-      <filters>
-        <filter val="1"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="9">
-      <filters blank="1"/>
-    </filterColumn>
-    <filterColumn colId="11">
-      <filters>
-        <filter val=" 10.1056/NEJMoa1917246"/>
-        <filter val="10.1001/jamaneurol.2021.0405"/>
-        <filter val="10.1007/s00415-014-7264-4"/>
-        <filter val="10.1016/S0140-6736(12)61768-1"/>
-        <filter val="10.1016/S0140-6736(12)61769-3"/>
-        <filter val="10.1016/S0140-6736(18)30475-6"/>
-        <filter val="10.1016/S1474-4422(19)30238-8"/>
-        <filter val="10.1056/NEJMoa0907839"/>
-        <filter val="10.1056/NEJMoa1114287"/>
-        <filter val="10.1056/NEJMoa1206328"/>
-        <filter val="10.1056/NEJMoa1501481"/>
-        <filter val="10.1056/NEJMoa1601277"/>
-        <filter val="10.1056/NEJMoa1606468"/>
-        <filter val="10.1056/NEJMoa2201904"/>
-        <filter val="10.1212/NXI.0000000000001148"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:P61" xr:uid="{B429CA24-7106-0B4B-AC86-AAFA2AC40041}"/>
   <hyperlinks>
     <hyperlink ref="L9" r:id="rId1" display="https://doi.org/10.1056/nejmoa1917246" xr:uid="{71C354F8-E17A-D847-8394-C05323C43878}"/>
     <hyperlink ref="L52" r:id="rId2" display="https://doi.org/10.1056/nejmoa1917246" xr:uid="{6DACC23A-AC45-DC4E-ADDB-12AC7B07FE2C}"/>
